--- a/biology/Botanique/Pavot_bleu_de_l'Himalaya/Pavot_bleu_de_l'Himalaya.xlsx
+++ b/biology/Botanique/Pavot_bleu_de_l'Himalaya/Pavot_bleu_de_l'Himalaya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pavot_bleu_de_l%27Himalaya</t>
+          <t>Pavot_bleu_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meconopsis betonicifolia
-Le pavot bleu de l'Himalaya, aussi appelé pavot bleu du Tibet et coquelicot bleu de l'Himalaya (Meconopsis betonicifolia, aussi Meconopsis baileyi, tibétain : Utpal Ngonpo ) est une plante vivace de la famille des Papavéracées. Elle a été décrite la première fois par en 1886 par Pierre Jean Marie Delavay. En 1912 (ou 1913), un spécimen fut collecté par Frederick Markham Bailey (mission d'exploration Bailey-Morshead des gorges de Tsangpo). Il s'agit d'une plante de la médecine tibétaine traditionnelle risquant de disparaître en raison d'une commercialisation trop importante[2].
+Le pavot bleu de l'Himalaya, aussi appelé pavot bleu du Tibet et coquelicot bleu de l'Himalaya (Meconopsis betonicifolia, aussi Meconopsis baileyi, tibétain : Utpal Ngonpo ) est une plante vivace de la famille des Papavéracées. Elle a été décrite la première fois par en 1886 par Pierre Jean Marie Delavay. En 1912 (ou 1913), un spécimen fut collecté par Frederick Markham Bailey (mission d'exploration Bailey-Morshead des gorges de Tsangpo). Il s'agit d'une plante de la médecine tibétaine traditionnelle risquant de disparaître en raison d'une commercialisation trop importante.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pavot_bleu_de_l%27Himalaya</t>
+          <t>Pavot_bleu_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : de 1 m à 1,5 m de hauteur 
 Taille des fleurs : entre 10 et 20 cm de diamètre
@@ -522,7 +536,7 @@
 Exposition : à mi-ombre ou au soleil si le sol est maintenu humide 
 Sol : humifère, frais voire humide, et plutôt neutre.
 Originaire des gorges du Yarlung Tsangpo, dans le sud-est du Tibet, le pavot bleu pousse à une altitude de 3120 à 4000 mètres.
-En 1886, les longues marches de Delavay vers le plateau tibétain l'amenèrent à découvrir des pavots d'un bleu lumineux, mais la plante fut peut-être découverte avant lui et dénommée Meconopsis napaulensis[3].
+En 1886, les longues marches de Delavay vers le plateau tibétain l'amenèrent à découvrir des pavots d'un bleu lumineux, mais la plante fut peut-être découverte avant lui et dénommée Meconopsis napaulensis.
 Cette vivace est très capricieuse, elle peut devenir envahissante autant que disparaître du jour au lendemain si les conditions ne lui plaisent pas. Elle est appréciée par les escargots et limaces ... et sujette au mildiou.
 Cette fleur est l'emblème des Jardins de Métis en Gaspésie au Québec.
 La floraison au Québec s’étale approximativement sur un mois, de la fin juin jusqu’à la fin juillet. Elle atteint généralement son apogée les deux premières semaines de juillet.
